--- a/COVID NFLStats/QB/QB_aggregate.xlsx
+++ b/COVID NFLStats/QB/QB_aggregate.xlsx
@@ -500,61 +500,61 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Lamar Jackson</t>
+          <t>Baker Mayfield</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>2019-2021</t>
+          <t>Group1</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>2922</v>
+        <v>3466.666666666667</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>64.96666666666667</v>
+        <v>60.9</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>9.333333333333334</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>26</v>
+        <v>21.66666666666667</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>144.6666666666667</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Lamar Jackson</t>
+          <t>Baker Mayfield</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>2022-2024</t>
+          <t>Group2</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>3364</v>
+        <v>3328.666666666667</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>65.39999999999999</v>
+        <v>65.3888888888889</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>6</v>
+        <v>10.44444444444444</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>27.33333333333333</v>
+        <v>25.22222222222222</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>156.6666666666667</v>
+        <v>158.2222222222222</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Lamar Jackson</t>
+          <t>Baker Mayfield</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -563,25 +563,25 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>442</v>
+        <v>-138</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.4333333333333229</v>
+        <v>4.488888888888901</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-3.333333333333334</v>
+        <v>-3.555555555555555</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.333333333333332</v>
+        <v>3.55555555555555</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>12</v>
+        <v>-11.7777777777778</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Baker Mayfield</t>
+          <t>Josh Allen</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
@@ -590,25 +590,25 @@
         </is>
       </c>
       <c r="C5" s="3" t="n">
-        <v>3466.666666666667</v>
+        <v>4013.333333333333</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>60.9</v>
+        <v>63.76666666666667</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>14</v>
+        <v>11.33333333333333</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>21.66666666666667</v>
+        <v>31</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>170</v>
+        <v>202.6666666666667</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Baker Mayfield</t>
+          <t>Josh Allen</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -617,25 +617,25 @@
         </is>
       </c>
       <c r="C6" s="3" t="n">
-        <v>3328.666666666667</v>
+        <v>4106.666666666667</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>65.3888888888889</v>
+        <v>64.46666666666667</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>10.44444444444444</v>
+        <v>12.66666666666667</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>25.22222222222222</v>
+        <v>30.66666666666667</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>158.2222222222222</v>
+        <v>195.3333333333333</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Baker Mayfield</t>
+          <t>Josh Allen</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
@@ -644,25 +644,25 @@
         </is>
       </c>
       <c r="C7" s="3" t="n">
-        <v>-138</v>
+        <v>93.33333333333348</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>4.488888888888901</v>
+        <v>0.6999999999999957</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>-3.555555555555555</v>
+        <v>1.333333333333332</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>3.55555555555555</v>
+        <v>-0.3333333333333321</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>-11.7777777777778</v>
+        <v>-7.333333333333314</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>Josh Allen</t>
+          <t>Kirk Cousins</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -671,25 +671,25 @@
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>4013.333333333333</v>
+        <v>4029.666666666667</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>63.76666666666667</v>
+        <v>67.66666666666667</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>11.33333333333333</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>31</v>
+        <v>31.33333333333333</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>202.6666666666667</v>
+        <v>189.6666666666667</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>Josh Allen</t>
+          <t>Kirk Cousins</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -698,25 +698,25 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>4106.666666666667</v>
+        <v>3462</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>64.46666666666667</v>
+        <v>67.43333333333334</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>12.66666666666667</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>30.66666666666667</v>
+        <v>21.66666666666667</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>195.3333333333333</v>
+        <v>168.3333333333333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>Josh Allen</t>
+          <t>Kirk Cousins</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -725,25 +725,25 @@
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>93.33333333333348</v>
+        <v>-567.6666666666665</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.6999999999999957</v>
+        <v>-0.2333333333333343</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>1.333333333333332</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-0.3333333333333321</v>
+        <v>-9.666666666666664</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>-7.333333333333314</v>
+        <v>-21.33333333333331</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>Kirk Cousins</t>
+          <t>Lamar Jackson</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
@@ -752,25 +752,25 @@
         </is>
       </c>
       <c r="C11" s="3" t="n">
-        <v>4029.666666666667</v>
+        <v>2922</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>67.66666666666667</v>
+        <v>64.96666666666667</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>8.666666666666666</v>
+        <v>9.333333333333334</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>31.33333333333333</v>
+        <v>26</v>
       </c>
       <c r="G11" s="3" t="n">
-        <v>189.6666666666667</v>
+        <v>144.6666666666667</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>Kirk Cousins</t>
+          <t>Lamar Jackson</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -779,25 +779,25 @@
         </is>
       </c>
       <c r="C12" s="3" t="n">
-        <v>3462</v>
+        <v>3364</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>67.43333333333334</v>
+        <v>65.39999999999999</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>11.66666666666667</v>
+        <v>6</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>21.66666666666667</v>
+        <v>27.33333333333333</v>
       </c>
       <c r="G12" s="3" t="n">
-        <v>168.3333333333333</v>
+        <v>156.6666666666667</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>Kirk Cousins</t>
+          <t>Lamar Jackson</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
@@ -806,19 +806,19 @@
         </is>
       </c>
       <c r="C13" s="3" t="n">
-        <v>-567.6666666666665</v>
+        <v>442</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>-0.2333333333333343</v>
+        <v>0.4333333333333229</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>3</v>
+        <v>-3.333333333333334</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>-9.666666666666664</v>
+        <v>1.333333333333332</v>
       </c>
       <c r="G13" s="3" t="n">
-        <v>-21.33333333333331</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
